--- a/original_summary.xlsx
+++ b/original_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akihi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2510F415-1AB9-42E4-A4CB-C8CEF137A023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C113F490-7985-4117-97A6-C53FA178F6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A5B83BA-5F93-4A47-8DCD-25F2BF6695E7}"/>
   </bookViews>
@@ -152,40 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>COPD増悪として入院となったが、入院中に心不全が悪化して利尿薬を使用した。その後無事に退院となった。</t>
-    <rPh sb="4" eb="6">
-      <t>ゾウアク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウイン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ニュウインチュウ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>シンフゼン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>アッカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>リニョウヤク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ブジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>タイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>もともとHOT導入されている患者。COPD増悪としてCTRXで治療して改善。</t>
     <rPh sb="7" eb="9">
       <t>ドウニュウ</t>
@@ -240,31 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOT使用中の患者。COPD増悪＋細菌性肺炎として治療を行った。</t>
-    <rPh sb="3" eb="6">
-      <t>シヨウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンジャ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゾウアク</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>サイキンセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハイエン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ベースに肺癌があり、今回はCOPD増悪として入院。</t>
     <rPh sb="4" eb="6">
       <t>ハイガン</t>
@@ -308,6 +249,92 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COPD増悪として入院となったが、入院中に心不全が悪化して利尿薬を使用した。入院時の酸素投与量は2Lであったが、その後無事にRAに戻り、退院となった。</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウアク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウインチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シンフゼン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アッカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>リニョウヤク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウヨ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ブジ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOT使用中の患者。ベースの酸素量は2Lであるが、3Lに悪化したため、COPD増悪＋細菌性肺炎として治療を行った。</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>アッカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゾウアク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>サイキンセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイエン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チリョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -746,7 +773,7 @@
   <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -781,7 +808,7 @@
         <v>43484</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -795,7 +822,7 @@
         <v>41336</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -809,7 +836,7 @@
         <v>43151</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -823,7 +850,7 @@
         <v>41273</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -837,7 +864,7 @@
         <v>42156</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -851,7 +878,7 @@
         <v>43025</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -865,7 +892,7 @@
         <v>39577</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
